--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_speed_coherence.xlsx
@@ -507,19 +507,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.696599960327148</v>
+        <v>2.696300029754639</v>
       </c>
       <c r="C2" t="n">
-        <v>2.369520664215088</v>
+        <v>2.369451999664307</v>
       </c>
       <c r="D2" t="n">
-        <v>2.581926584243774</v>
+        <v>2.581835031509399</v>
       </c>
       <c r="E2" t="n">
         <v>2.744869709014893</v>
       </c>
       <c r="F2" t="n">
-        <v>3.180000066757202</v>
+        <v>3.180825710296631</v>
       </c>
       <c r="G2" t="n">
         <v>2.976799964904785</v>
@@ -531,10 +531,10 @@
         <v>2.760746240615845</v>
       </c>
       <c r="J2" t="n">
-        <v>2.61659574508667</v>
+        <v>2.616808414459229</v>
       </c>
       <c r="K2" t="n">
-        <v>2.773077011108398</v>
+        <v>2.772905826568604</v>
       </c>
       <c r="L2" t="n">
         <v>2.416046380996704</v>
@@ -553,43 +553,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7972730255126953</v>
+        <v>0.7972115445137024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8550468842460685</v>
+        <v>0.8550447776709518</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8188835508232817</v>
+        <v>0.8188762489808808</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7485029521195785</v>
+        <v>0.7485256335009699</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7849516819376464</v>
+        <v>0.7851593365909857</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8039698902765909</v>
+        <v>0.8039693490664164</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8532202128602677</v>
+        <v>0.853218722243269</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8125964874651894</v>
+        <v>0.8126002034144615</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7001580329651528</v>
+        <v>0.7001385891691168</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8840449105980049</v>
+        <v>0.8840392807610015</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8503899435664333</v>
+        <v>0.8503851211348246</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6425338594809823</v>
+        <v>0.642553308735723</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7945626705884934</v>
+        <v>0.7945529818534851</v>
       </c>
     </row>
   </sheetData>

--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_speed_coherence.xlsx
@@ -507,19 +507,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.696300029754639</v>
+        <v>2.696599960327148</v>
       </c>
       <c r="C2" t="n">
-        <v>2.369451999664307</v>
+        <v>2.369520664215088</v>
       </c>
       <c r="D2" t="n">
-        <v>2.581835031509399</v>
+        <v>2.581926584243774</v>
       </c>
       <c r="E2" t="n">
         <v>2.744869709014893</v>
       </c>
       <c r="F2" t="n">
-        <v>3.180825710296631</v>
+        <v>3.180000066757202</v>
       </c>
       <c r="G2" t="n">
         <v>2.976799964904785</v>
@@ -531,10 +531,10 @@
         <v>2.760746240615845</v>
       </c>
       <c r="J2" t="n">
-        <v>2.616808414459229</v>
+        <v>2.61659574508667</v>
       </c>
       <c r="K2" t="n">
-        <v>2.772905826568604</v>
+        <v>2.773077011108398</v>
       </c>
       <c r="L2" t="n">
         <v>2.416046380996704</v>
@@ -553,43 +553,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7972115445137024</v>
+        <v>0.7972730255126953</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8550447776709518</v>
+        <v>0.8550468842460685</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8188762489808808</v>
+        <v>0.8188835508232817</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7485256335009699</v>
+        <v>0.7485029521195785</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7851593365909857</v>
+        <v>0.7849516819376464</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8039693490664164</v>
+        <v>0.8039698902765909</v>
       </c>
       <c r="H3" t="n">
-        <v>0.853218722243269</v>
+        <v>0.8532202128602677</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8126002034144615</v>
+        <v>0.8125964874651894</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7001385891691168</v>
+        <v>0.7001580329651528</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8840392807610015</v>
+        <v>0.8840449105980049</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8503851211348246</v>
+        <v>0.8503899435664333</v>
       </c>
       <c r="M3" t="n">
-        <v>0.642553308735723</v>
+        <v>0.6425338594809823</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7945529818534851</v>
+        <v>0.7945626705884934</v>
       </c>
     </row>
   </sheetData>

--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_speed_coherence.xlsx
@@ -507,43 +507,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.696599960327148</v>
+        <v>6.165893077850342</v>
       </c>
       <c r="C2" t="n">
-        <v>2.369520664215088</v>
+        <v>5.020578861236572</v>
       </c>
       <c r="D2" t="n">
-        <v>2.581926584243774</v>
+        <v>9.113711357116699</v>
       </c>
       <c r="E2" t="n">
-        <v>2.744869709014893</v>
+        <v>6.707367420196533</v>
       </c>
       <c r="F2" t="n">
-        <v>3.180000066757202</v>
+        <v>8.25933837890625</v>
       </c>
       <c r="G2" t="n">
-        <v>2.976799964904785</v>
+        <v>6.446605682373047</v>
       </c>
       <c r="H2" t="n">
-        <v>2.673865556716919</v>
+        <v>7.495014190673828</v>
       </c>
       <c r="I2" t="n">
-        <v>2.760746240615845</v>
+        <v>4.168988227844238</v>
       </c>
       <c r="J2" t="n">
-        <v>2.61659574508667</v>
+        <v>4.651000022888184</v>
       </c>
       <c r="K2" t="n">
-        <v>2.773077011108398</v>
+        <v>4.205680847167969</v>
       </c>
       <c r="L2" t="n">
-        <v>2.416046380996704</v>
+        <v>5.314105987548828</v>
       </c>
       <c r="M2" t="n">
-        <v>2.733043432235718</v>
+        <v>4.289550304412842</v>
       </c>
       <c r="N2" t="n">
-        <v>2.556999921798706</v>
+        <v>6.511447429656982</v>
       </c>
     </row>
     <row r="3">
@@ -553,43 +553,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7972730255126953</v>
+        <v>0.878948328484382</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8550468842460685</v>
+        <v>0.8978452079452819</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8188835508232817</v>
+        <v>0.9482017571449279</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7485029521195785</v>
+        <v>0.8493820044240447</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7849516819376464</v>
+        <v>0.8758022296984317</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8039698902765909</v>
+        <v>0.8355175680922766</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8532202128602677</v>
+        <v>0.8690696790007784</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8125964874651894</v>
+        <v>0.85421173317584</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7001580329651528</v>
+        <v>0.7499425614009733</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8840449105980049</v>
+        <v>0.9002278626244953</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8503899435664333</v>
+        <v>0.8913960077904708</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6425338594809823</v>
+        <v>0.7602886622876264</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7945626705884934</v>
+        <v>0.9259014694314254</v>
       </c>
     </row>
   </sheetData>
